--- a/phenocycler/v2.1.0/phenocycler-v2.1.0.xlsx
+++ b/phenocycler/v2.1.0/phenocycler-v2.1.0.xlsx
@@ -29,11 +29,11 @@
   <commentList>
     <comment ref="A1" authorId="1">
       <text>
-        <t>(Required) HuBMAP ID (e.g., HBM765.TRHD.452) of the sample (i.e., block, section
-or suspension) used to perform this assay. For example, for a RNAseq assay, the
-parent would be the suspension, whereas this would be the HuBMAP ID of a section
-for one of the imaging assays. If an assay comes from multiple parent samples
-then this should be a comma separated list.</t>
+        <t>(Required) HuBMAP ID of the sample (i.e., block, section or suspension) used to
+perform this assay. For example, for a RNAseq assay, the parent would be the
+suspension, whereas this would be the HuBMAP ID of a section for one of the
+imaging assays. If an assay comes from multiple parent samples then this should
+be a comma separated list. Example: HBM765.TRHD.452</t>
       </text>
     </comment>
     <comment ref="B1" authorId="1">
@@ -52,7 +52,8 @@
 procurment and preparation. For example for an imaging assay, the protocol might
 include staining of a section through the creation of an OME-TIFF file. In this
 case the protocol would include any image processing steps required to create
-the OME-TIFF file.</t>
+the OME-TIFF file. Example:
+https://dx.doi.org/10.17504/protocols.io.eq2lyno9qvx9/v1</t>
       </text>
     </comment>
     <comment ref="D1" authorId="1">
@@ -68,7 +69,8 @@
     <comment ref="F1" authorId="1">
       <text>
         <t>(Required) Specifies whether or not a specific molecule(s) is/are targeted for
-detection/measurement by the assay. The CODEX analyte is protein.</t>
+detection/measurement by the assay ("Yes" or "No"). The CODEX analyte is
+protein.</t>
       </text>
     </comment>
     <comment ref="G1" authorId="1">
@@ -183,7 +185,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="228">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -221,6 +223,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000204</t>
   </si>
   <si>
+    <t>scATACseq</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000247</t>
+  </si>
+  <si>
     <t>Auto-fluorescence</t>
   </si>
   <si>
@@ -233,30 +241,30 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000206</t>
   </si>
   <si>
-    <t>snATAC-seq</t>
+    <t>scRNAseq</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000248</t>
+  </si>
+  <si>
+    <t>Xenium</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000219</t>
+  </si>
+  <si>
+    <t>snATACseq</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000183</t>
   </si>
   <si>
-    <t>Xenium</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000219</t>
-  </si>
-  <si>
     <t>Molecular Cartography</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000217</t>
   </si>
   <si>
-    <t>scRNA-seq</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000248</t>
-  </si>
-  <si>
     <t>CosMx</t>
   </si>
   <si>
@@ -299,114 +307,108 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000160</t>
   </si>
   <si>
-    <t>snRNA-seq</t>
+    <t>CyCIF</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000200</t>
+  </si>
+  <si>
+    <t>Light Sheet</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000168</t>
+  </si>
+  <si>
+    <t>NanoDESI</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000203</t>
+  </si>
+  <si>
+    <t>GeoMx</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000216</t>
+  </si>
+  <si>
+    <t>RNAseq (bulk)</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000212</t>
+  </si>
+  <si>
+    <t>MALDI</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000201</t>
+  </si>
+  <si>
+    <t>RNAseq (GeoMx)</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000214</t>
+  </si>
+  <si>
+    <t>Histology</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000197</t>
+  </si>
+  <si>
+    <t>Enhanced Stimulated Raman Spectroscopy (SRS)</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000209</t>
+  </si>
+  <si>
+    <t>ATACseq (bulk)</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000210</t>
+  </si>
+  <si>
+    <t>MERFISH</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000221</t>
+  </si>
+  <si>
+    <t>LC-MS</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000194</t>
+  </si>
+  <si>
+    <t>10X Multiome</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000215</t>
+  </si>
+  <si>
+    <t>PhenoCycler</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000199</t>
+  </si>
+  <si>
+    <t>Second Harmonic Generation (SHG)</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000208</t>
+  </si>
+  <si>
+    <t>Thick section Multiphoton MxIF</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000207</t>
+  </si>
+  <si>
+    <t>snRNAseq</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000184</t>
   </si>
   <si>
-    <t>CyCIF</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000200</t>
-  </si>
-  <si>
-    <t>Light Sheet</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000168</t>
-  </si>
-  <si>
-    <t>NanoDESI</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000203</t>
-  </si>
-  <si>
-    <t>GeoMx</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000216</t>
-  </si>
-  <si>
-    <t>RNAseq (bulk)</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000212</t>
-  </si>
-  <si>
-    <t>MALDI</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000201</t>
-  </si>
-  <si>
-    <t>RNAseq (GeoMx)</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000214</t>
-  </si>
-  <si>
-    <t>Histology</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000197</t>
-  </si>
-  <si>
-    <t>scATAC-seq</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000247</t>
-  </si>
-  <si>
-    <t>Enhanced Stimulated Raman Spectroscopy (SRS)</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000209</t>
-  </si>
-  <si>
-    <t>ATACseq (bulk)</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000210</t>
-  </si>
-  <si>
-    <t>MERFISH</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000221</t>
-  </si>
-  <si>
-    <t>LC-MS</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000194</t>
-  </si>
-  <si>
-    <t>10X Multiome</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000215</t>
-  </si>
-  <si>
-    <t>PhenoCycler</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000199</t>
-  </si>
-  <si>
-    <t>Second Harmonic Generation (SHG)</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000208</t>
-  </si>
-  <si>
-    <t>Thick section Multiphoton MxIF</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000207</t>
-  </si>
-  <si>
     <t>Visium</t>
   </si>
   <si>
@@ -422,6 +424,12 @@
     <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C13201</t>
   </si>
   <si>
+    <t>Nucleic acid and protein</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000273</t>
+  </si>
+  <si>
     <t>Fluorochrome</t>
   </si>
   <si>
@@ -593,18 +601,24 @@
     <t>https://identifiers.org/RRID:SCR_023760</t>
   </si>
   <si>
-    <t>Zeiss Lightsheet 7</t>
+    <t>Axio Observer 7</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023694</t>
+  </si>
+  <si>
+    <t>IN Cell Analyzer 2200</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023616</t>
+  </si>
+  <si>
+    <t>Lightsheet 7</t>
   </si>
   <si>
     <t>https://identifiers.org/RRID:SCR_024448</t>
   </si>
   <si>
-    <t>IN Cell Analyzer 2200</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023616</t>
-  </si>
-  <si>
     <t>Orbitrap Fusion Lumos Tribrid</t>
   </si>
   <si>
@@ -623,6 +637,18 @@
     <t>https://identifiers.org/RRID:SCR_023615</t>
   </si>
   <si>
+    <t>Axio Observer 5</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023692</t>
+  </si>
+  <si>
+    <t>Axio Observer 3</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023693</t>
+  </si>
+  <si>
     <t>HiSeq 2500</t>
   </si>
   <si>
@@ -665,36 +691,18 @@
     <t>https://identifiers.org/RRID:SCR_023610</t>
   </si>
   <si>
-    <t>Zeiss Axio Observer 5</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023692</t>
-  </si>
-  <si>
     <t>HiSeq 4000</t>
   </si>
   <si>
     <t>https://identifiers.org/RRID:SCR_016386</t>
   </si>
   <si>
-    <t>Zeiss Axio Observer 7</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023694</t>
-  </si>
-  <si>
     <t>QTRAP 5500</t>
   </si>
   <si>
     <t>https://identifiers.org/RRID:SCR_020517</t>
   </si>
   <si>
-    <t>Zeiss Axio Observer 3</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023693</t>
-  </si>
-  <si>
     <t>BZ-X800</t>
   </si>
   <si>
@@ -854,7 +862,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2023-10-03T15:13:25-07:00</t>
+    <t>2023-10-06T19:32:16-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -997,63 +1005,63 @@
         <v>76</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="2">
       <c r="D2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="V2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
   </sheetData>
@@ -1062,7 +1070,7 @@
       <formula1>'dataset_type'!$A$1:$A$36</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="E2:E1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'analyte_class'!$A$1:$A$10</formula1>
+      <formula1>'analyte_class'!$A$1:$A$11</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="F2:F1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'is_targeted'!$A$1:$A$2</formula1>
@@ -1133,30 +1141,30 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B1" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D1" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -1467,7 +1475,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1551,6 +1559,14 @@
       </c>
       <c r="B10" t="s">
         <v>96</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>97</v>
+      </c>
+      <c r="B11" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -1568,12 +1584,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -1591,114 +1607,114 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B3" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B4" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B6" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B8" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B9" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B10" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B11" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B12" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B13" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B14" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -1716,258 +1732,258 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B3" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B4" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B5" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B6" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B8" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B9" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B10" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B11" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B12" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B13" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B14" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B15" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B16" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B17" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B18" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B19" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B20" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B21" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B22" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B23" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B24" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B25" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B26" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B27" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B28" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B29" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B30" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B31" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B32" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -1985,42 +2001,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B1" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B3" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B4" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B5" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -2038,26 +2054,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B3" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -2075,18 +2091,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B1" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>

--- a/phenocycler/v2.1.0/phenocycler-v2.1.0.xlsx
+++ b/phenocycler/v2.1.0/phenocycler-v2.1.0.xlsx
@@ -132,25 +132,32 @@
     </comment>
     <comment ref="O1" authorId="1">
       <text>
+        <t>(Required) This is the location of the antibodies.tsv file relative to the root
+of the top level of the upload directory structure. This path should begin with
+"." and would likely be something like "./extras/antibodies.tsv".</t>
+      </text>
+    </comment>
+    <comment ref="P1" authorId="1">
+      <text>
         <t>(Required) How long the tissue was on the acquisition instrument.</t>
       </text>
     </comment>
-    <comment ref="P1" authorId="1">
+    <comment ref="Q1" authorId="1">
       <text>
         <t>(Required) The units for the total run time unit field.</t>
       </text>
     </comment>
-    <comment ref="Q1" authorId="1">
+    <comment ref="R1" authorId="1">
       <text>
         <t>(Required) Number of antibodies</t>
       </text>
     </comment>
-    <comment ref="R1" authorId="1">
+    <comment ref="S1" authorId="1">
       <text>
         <t>(Required) Number of fluorescent channels imaged during each cycle.</t>
       </text>
     </comment>
-    <comment ref="S1" authorId="1">
+    <comment ref="T1" authorId="1">
       <text>
         <t>(Required) Number of imaging rounds to capture the tagged biomarkers. For CODEX
 a biomarker imaging round consists of 1. oligo application, 2. fluor
@@ -159,13 +166,13 @@
 inactivation.</t>
       </text>
     </comment>
-    <comment ref="T1" authorId="1">
+    <comment ref="U1" authorId="1">
       <text>
         <t>(Required) The total number of acquisitions performed on microscope to collect
 autofluorescence/background or stained signal (e.g., histology).</t>
       </text>
     </comment>
-    <comment ref="U1" authorId="1">
+    <comment ref="V1" authorId="1">
       <text>
         <t>A unique ID denoting the slide used. This allows users the ability to determine
 which tissue sections were processed together on the same slide. It is
@@ -173,7 +180,7 @@
 values overlapping across centers.</t>
       </text>
     </comment>
-    <comment ref="V1" authorId="1">
+    <comment ref="W1" authorId="1">
       <text>
         <t>(Required) The string that serves as the definitive identifier for the metadata
 schema version and is readily interpretable by computers for data validation and
@@ -185,7 +192,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="237">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -607,12 +614,24 @@
     <t>https://identifiers.org/RRID:SCR_023694</t>
   </si>
   <si>
+    <t>NovaSeq X</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024569</t>
+  </si>
+  <si>
     <t>IN Cell Analyzer 2200</t>
   </si>
   <si>
     <t>https://identifiers.org/RRID:SCR_023616</t>
   </si>
   <si>
+    <t>NanoZoomer 2.0-HT</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_021658</t>
+  </si>
+  <si>
     <t>Lightsheet 7</t>
   </si>
   <si>
@@ -745,6 +764,18 @@
     <t>https://identifiers.org/RRID:SCR_023195</t>
   </si>
   <si>
+    <t>NovaSeq X Plus</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024568</t>
+  </si>
+  <si>
+    <t>NanoZoomer-SQ</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023763</t>
+  </si>
+  <si>
     <t>NextSeq 550</t>
   </si>
   <si>
@@ -823,6 +854,9 @@
     <t>data_path</t>
   </si>
   <si>
+    <t>antibodies_path</t>
+  </si>
+  <si>
     <t>total_run_time_value</t>
   </si>
   <si>
@@ -862,7 +896,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2023-10-06T19:32:16-07:00</t>
+    <t>2023-10-16T20:49:15-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -921,7 +955,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyAlignment="true" applyFill="true">
       <alignment horizontal="center"/>
@@ -937,6 +971,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -958,7 +993,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V2"/>
+  <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -978,14 +1013,15 @@
     <col min="12" max="12" style="13" width="46.48828125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" style="14" width="16.90625" customWidth="true" bestFit="true"/>
     <col min="14" max="14" style="15" width="9.81640625" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" style="16" width="19.45703125" customWidth="true" bestFit="true"/>
-    <col min="16" max="16" style="17" width="18.30078125" customWidth="true" bestFit="true"/>
-    <col min="17" max="17" style="18" width="20.875" customWidth="true" bestFit="true"/>
-    <col min="18" max="18" style="19" width="19.44140625" customWidth="true" bestFit="true"/>
-    <col min="19" max="19" style="20" width="36.0" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" style="21" width="30.91015625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" style="22" width="7.8125" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" style="23" width="19.61328125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" style="16" width="15.234375" customWidth="true" bestFit="true"/>
+    <col min="16" max="16" style="17" width="19.45703125" customWidth="true" bestFit="true"/>
+    <col min="17" max="17" style="18" width="18.30078125" customWidth="true" bestFit="true"/>
+    <col min="18" max="18" style="19" width="20.875" customWidth="true" bestFit="true"/>
+    <col min="19" max="19" style="20" width="19.44140625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" style="21" width="36.0" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" style="22" width="30.91015625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" style="23" width="7.8125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" style="24" width="19.61328125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1014,54 +1050,57 @@
         <v>131</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>219</v>
+        <v>227</v>
+      </c>
+      <c r="W1" t="s" s="1">
+        <v>228</v>
       </c>
     </row>
     <row r="2">
       <c r="D2" t="s">
         <v>66</v>
       </c>
-      <c r="V2" t="s">
-        <v>220</v>
+      <c r="W2" t="s">
+        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -1079,7 +1118,7 @@
       <formula1>'acquisition_instrument_vendor'!$A$1:$A$14</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="H2:H1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_model'!$A$1:$A$32</formula1>
+      <formula1>'acquisition_instrument_model'!$A$1:$A$36</formula1>
     </dataValidation>
     <dataValidation type="decimal" operator="greaterThanOrEqual" sqref="I2:I1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be greater than 0" showErrorMessage="true">
       <formula1>0</formula1>
@@ -1095,16 +1134,12 @@
     <dataValidation type="list" sqref="L2:L1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'time_since_acquisition_instrument_calibration_unit'!$A$1:$A$3</formula1>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThanOrEqual" sqref="O2:O1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be greater than 0" showErrorMessage="true">
+    <dataValidation type="decimal" operator="greaterThanOrEqual" sqref="P2:P1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be greater than 0" showErrorMessage="true">
       <formula1>0</formula1>
       <formula2/>
     </dataValidation>
-    <dataValidation type="list" sqref="P2:P1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
+    <dataValidation type="list" sqref="Q2:Q1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'total_run_time_unit'!$A$1:$A$2</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" sqref="Q2:Q1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be greater than 0" showErrorMessage="true">
-      <formula1>0</formula1>
-      <formula2/>
     </dataValidation>
     <dataValidation type="whole" operator="greaterThanOrEqual" sqref="R2:R1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be greater than 0" showErrorMessage="true">
       <formula1>0</formula1>
@@ -1115,6 +1150,10 @@
       <formula2/>
     </dataValidation>
     <dataValidation type="whole" operator="greaterThanOrEqual" sqref="T2:T1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be greater than 0" showErrorMessage="true">
+      <formula1>0</formula1>
+      <formula2/>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThanOrEqual" sqref="U2:U1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be greater than 0" showErrorMessage="true">
       <formula1>0</formula1>
       <formula2/>
     </dataValidation>
@@ -1141,16 +1180,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="B1" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="C1" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="D1" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
     </row>
     <row r="2">
@@ -1158,13 +1197,13 @@
         <v>66</v>
       </c>
       <c r="B2" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="C2" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="D2" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
     </row>
   </sheetData>
@@ -1724,7 +1763,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1984,6 +2023,38 @@
       </c>
       <c r="B32" t="s">
         <v>195</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>196</v>
+      </c>
+      <c r="B33" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>198</v>
+      </c>
+      <c r="B34" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>200</v>
+      </c>
+      <c r="B35" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>202</v>
+      </c>
+      <c r="B36" t="s">
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -2001,42 +2072,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="B1" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="B2" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="B3" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="B4" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="B5" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
     </row>
   </sheetData>
@@ -2054,26 +2125,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="B1" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="B2" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="B3" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>
@@ -2091,18 +2162,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="B1" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="B2" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
     </row>
   </sheetData>

--- a/phenocycler/v2.1.0/phenocycler-v2.1.0.xlsx
+++ b/phenocycler/v2.1.0/phenocycler-v2.1.0.xlsx
@@ -29,11 +29,12 @@
   <commentList>
     <comment ref="A1" authorId="1">
       <text>
-        <t>(Required) HuBMAP ID of the sample (i.e., block, section or suspension) used to
-perform this assay. For example, for a RNAseq assay, the parent would be the
-suspension, whereas this would be the HuBMAP ID of a section for one of the
-imaging assays. If an assay comes from multiple parent samples then this should
-be a comma separated list. Example: HBM765.TRHD.452</t>
+        <t>(Required) Unique HuBMAP or SenNet identifier of the sample (i.e., block,
+section or suspension) used to perform this assay. For example, for a RNAseq
+assay, the parent would be the suspension, whereas, for one of the imaging
+assays, the parent would be the tissue section. If an assay comes from multiple
+parent samples then this should be a comma separated list. Example:
+HBM386.ZGKG.235, HBM672.MKPK.442 or SNT232.UBHJ.322, SNT329.ALSK.102</t>
       </text>
     </comment>
     <comment ref="B1" authorId="1">
@@ -224,6 +225,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000246</t>
   </si>
   <si>
+    <t>MIBI</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000172</t>
+  </si>
+  <si>
     <t>DESI</t>
   </si>
   <si>
@@ -284,12 +291,6 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000222</t>
   </si>
   <si>
-    <t>Multiplex Ion Beam Imaging</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000172</t>
-  </si>
-  <si>
     <t>SIMS</t>
   </si>
   <si>
@@ -527,12 +528,6 @@
     <t>https://identifiers.org/RRID:SCR_023607</t>
   </si>
   <si>
-    <t>Bruker Daltonics</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023608</t>
-  </si>
-  <si>
     <t>Standard BioTools (Fluidigm)</t>
   </si>
   <si>
@@ -545,6 +540,12 @@
     <t>https://identifiers.org/RRID:SCR_023651</t>
   </si>
   <si>
+    <t>Bruker</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_017365</t>
+  </si>
+  <si>
     <t>Keyence</t>
   </si>
   <si>
@@ -896,7 +897,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2023-10-16T20:49:15-07:00</t>
+    <t>2023-10-27T18:06:32-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>

--- a/phenocycler/v2.1.0/phenocycler-v2.1.0.xlsx
+++ b/phenocycler/v2.1.0/phenocycler-v2.1.0.xlsx
@@ -193,7 +193,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="239">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -219,12 +219,6 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000264</t>
   </si>
   <si>
-    <t>nanoPOTS</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000246</t>
-  </si>
-  <si>
     <t>MIBI</t>
   </si>
   <si>
@@ -327,12 +321,6 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000168</t>
   </si>
   <si>
-    <t>NanoDESI</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000203</t>
-  </si>
-  <si>
     <t>GeoMx</t>
   </si>
   <si>
@@ -351,6 +339,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000201</t>
   </si>
   <si>
+    <t>2D Imaging Mass Cytometry</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000296</t>
+  </si>
+  <si>
     <t>RNAseq (GeoMx)</t>
   </si>
   <si>
@@ -597,6 +591,12 @@
     <t>https://identifiers.org/RRID:SCR_023611</t>
   </si>
   <si>
+    <t>STELLARIS 5</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024663</t>
+  </si>
+  <si>
     <t>BZ-X710</t>
   </si>
   <si>
@@ -651,6 +651,12 @@
     <t>https://identifiers.org/RRID:SCR_024449</t>
   </si>
   <si>
+    <t>Unknown</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C17998</t>
+  </si>
+  <si>
     <t>MALDI timsTOF Flex Prototype</t>
   </si>
   <si>
@@ -897,7 +903,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2023-10-27T18:06:32-07:00</t>
+    <t>2023-11-02T15:44:22-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -1039,75 +1045,75 @@
         <v>3</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="2">
       <c r="D2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="W2" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="15">
     <dataValidation type="list" sqref="D2:D1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'dataset_type'!$A$1:$A$36</formula1>
+      <formula1>'dataset_type'!$A$1:$A$35</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="E2:E1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'analyte_class'!$A$1:$A$11</formula1>
@@ -1119,7 +1125,7 @@
       <formula1>'acquisition_instrument_vendor'!$A$1:$A$14</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="H2:H1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_model'!$A$1:$A$36</formula1>
+      <formula1>'acquisition_instrument_model'!$A$1:$A$38</formula1>
     </dataValidation>
     <dataValidation type="decimal" operator="greaterThanOrEqual" sqref="I2:I1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be greater than 0" showErrorMessage="true">
       <formula1>0</formula1>
@@ -1181,30 +1187,30 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B1" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C1" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D1" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C2" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D2" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>
@@ -1214,7 +1220,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:B35"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1498,14 +1504,6 @@
       </c>
       <c r="B35" t="s">
         <v>73</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="s">
-        <v>74</v>
-      </c>
-      <c r="B36" t="s">
-        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1523,90 +1521,90 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B11" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -1624,12 +1622,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -1647,114 +1645,114 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B8" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B9" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B10" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B11" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B12" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B13" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B14" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -1764,7 +1762,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:B38"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1772,290 +1770,306 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B6" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B8" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B9" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B10" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B11" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B12" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B13" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B14" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B15" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B16" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B17" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B18" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B19" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B20" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B21" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B22" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B23" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B24" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B25" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B26" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B27" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B28" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B29" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B30" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B31" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B32" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B33" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B34" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B35" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
+        <v>200</v>
+      </c>
+      <c r="B36" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
         <v>202</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B37" t="s">
         <v>203</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>204</v>
+      </c>
+      <c r="B38" t="s">
+        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -2073,42 +2087,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B1" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B2" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B3" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B4" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B5" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -2126,26 +2140,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B1" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B3" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
   </sheetData>
@@ -2163,18 +2177,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B1" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
   </sheetData>

--- a/phenocycler/v2.1.0/phenocycler-v2.1.0.xlsx
+++ b/phenocycler/v2.1.0/phenocycler-v2.1.0.xlsx
@@ -903,7 +903,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2023-11-02T15:44:22-07:00</t>
+    <t>2023-11-07T20:04:39-08:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>

--- a/phenocycler/v2.1.0/phenocycler-v2.1.0.xlsx
+++ b/phenocycler/v2.1.0/phenocycler-v2.1.0.xlsx
@@ -193,7 +193,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="235">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -225,18 +225,18 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000172</t>
   </si>
   <si>
+    <t>Visium (no probes)</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000302</t>
+  </si>
+  <si>
     <t>DESI</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000204</t>
   </si>
   <si>
-    <t>scATACseq</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000247</t>
-  </si>
-  <si>
     <t>Auto-fluorescence</t>
   </si>
   <si>
@@ -249,22 +249,16 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000206</t>
   </si>
   <si>
-    <t>scRNAseq</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000248</t>
-  </si>
-  <si>
     <t>Xenium</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000219</t>
   </si>
   <si>
-    <t>snATACseq</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000183</t>
+    <t>Visium (with probes)</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000303</t>
   </si>
   <si>
     <t>Molecular Cartography</t>
@@ -291,12 +285,6 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000202</t>
   </si>
   <si>
-    <t>RNAseq (Visium)</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000188</t>
-  </si>
-  <si>
     <t>Cell DIVE</t>
   </si>
   <si>
@@ -309,6 +297,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000160</t>
   </si>
   <si>
+    <t>GeoMx (NGS)</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000300</t>
+  </si>
+  <si>
     <t>CyCIF</t>
   </si>
   <si>
@@ -321,18 +315,6 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000168</t>
   </si>
   <si>
-    <t>GeoMx</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000216</t>
-  </si>
-  <si>
-    <t>RNAseq (bulk)</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000212</t>
-  </si>
-  <si>
     <t>MALDI</t>
   </si>
   <si>
@@ -345,10 +327,10 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000296</t>
   </si>
   <si>
-    <t>RNAseq (GeoMx)</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000214</t>
+    <t>ATACseq</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000309</t>
   </si>
   <si>
     <t>Histology</t>
@@ -363,10 +345,10 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000209</t>
   </si>
   <si>
-    <t>ATACseq (bulk)</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000210</t>
+    <t>RNAseq</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000310</t>
   </si>
   <si>
     <t>MERFISH</t>
@@ -381,12 +363,30 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000194</t>
   </si>
   <si>
+    <t>nanoSPLITS</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000312</t>
+  </si>
+  <si>
     <t>10X Multiome</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000215</t>
   </si>
   <si>
+    <t>GeoMx (nCounter)</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000301</t>
+  </si>
+  <si>
+    <t>RNAseq (with probes)</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000311</t>
+  </si>
+  <si>
     <t>PhenoCycler</t>
   </si>
   <si>
@@ -405,18 +405,6 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000207</t>
   </si>
   <si>
-    <t>snRNAseq</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000184</t>
-  </si>
-  <si>
-    <t>Visium</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000187</t>
-  </si>
-  <si>
     <t>analyte_class</t>
   </si>
   <si>
@@ -903,7 +891,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2023-11-07T20:04:39-08:00</t>
+    <t>2023-11-15T17:12:54-08:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -1045,61 +1033,61 @@
         <v>3</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="K1" t="s" s="1">
+        <v>214</v>
+      </c>
+      <c r="L1" t="s" s="1">
+        <v>215</v>
+      </c>
+      <c r="M1" t="s" s="1">
+        <v>216</v>
+      </c>
+      <c r="N1" t="s" s="1">
+        <v>217</v>
+      </c>
+      <c r="O1" t="s" s="1">
         <v>218</v>
       </c>
-      <c r="L1" t="s" s="1">
+      <c r="P1" t="s" s="1">
         <v>219</v>
       </c>
-      <c r="M1" t="s" s="1">
+      <c r="Q1" t="s" s="1">
         <v>220</v>
       </c>
-      <c r="N1" t="s" s="1">
+      <c r="R1" t="s" s="1">
         <v>221</v>
       </c>
-      <c r="O1" t="s" s="1">
+      <c r="S1" t="s" s="1">
         <v>222</v>
       </c>
-      <c r="P1" t="s" s="1">
+      <c r="T1" t="s" s="1">
         <v>223</v>
       </c>
-      <c r="Q1" t="s" s="1">
+      <c r="U1" t="s" s="1">
         <v>224</v>
       </c>
-      <c r="R1" t="s" s="1">
+      <c r="V1" t="s" s="1">
         <v>225</v>
       </c>
-      <c r="S1" t="s" s="1">
+      <c r="W1" t="s" s="1">
         <v>226</v>
-      </c>
-      <c r="T1" t="s" s="1">
-        <v>227</v>
-      </c>
-      <c r="U1" t="s" s="1">
-        <v>228</v>
-      </c>
-      <c r="V1" t="s" s="1">
-        <v>229</v>
-      </c>
-      <c r="W1" t="s" s="1">
-        <v>230</v>
       </c>
     </row>
     <row r="2">
@@ -1107,13 +1095,13 @@
         <v>64</v>
       </c>
       <c r="W2" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="15">
     <dataValidation type="list" sqref="D2:D1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'dataset_type'!$A$1:$A$35</formula1>
+      <formula1>'dataset_type'!$A$1:$A$33</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="E2:E1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'analyte_class'!$A$1:$A$11</formula1>
@@ -1187,16 +1175,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C1" t="s">
+        <v>231</v>
+      </c>
+      <c r="D1" t="s">
         <v>233</v>
-      </c>
-      <c r="C1" t="s">
-        <v>235</v>
-      </c>
-      <c r="D1" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="2">
@@ -1204,13 +1192,13 @@
         <v>64</v>
       </c>
       <c r="B2" t="s">
+        <v>230</v>
+      </c>
+      <c r="C2" t="s">
+        <v>232</v>
+      </c>
+      <c r="D2" t="s">
         <v>234</v>
-      </c>
-      <c r="C2" t="s">
-        <v>236</v>
-      </c>
-      <c r="D2" t="s">
-        <v>238</v>
       </c>
     </row>
   </sheetData>
@@ -1220,7 +1208,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B35"/>
+  <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1488,22 +1476,6 @@
       </c>
       <c r="B33" t="s">
         <v>69</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s">
-        <v>70</v>
-      </c>
-      <c r="B34" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="s">
-        <v>72</v>
-      </c>
-      <c r="B35" t="s">
-        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1521,90 +1493,90 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B6" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B7" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B8" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B9" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B10" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B11" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -1622,12 +1594,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -1645,114 +1617,114 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B3" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B4" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B5" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B6" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B8" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B9" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B10" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B11" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B12" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B13" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B14" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -1770,306 +1742,306 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B3" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B4" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B5" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B6" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B8" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B9" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B10" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B11" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B12" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B13" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B14" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B15" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B16" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B17" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B18" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B19" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B20" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B21" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B22" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B23" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B24" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B25" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B26" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B27" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B28" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B29" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B30" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B31" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B32" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B33" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B34" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B35" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B36" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B37" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B38" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -2087,42 +2059,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B1" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B2" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B3" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B4" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B5" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>
@@ -2140,26 +2112,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B1" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B2" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
   </sheetData>
@@ -2177,18 +2149,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B1" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B2" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>

--- a/phenocycler/v2.1.0/phenocycler-v2.1.0.xlsx
+++ b/phenocycler/v2.1.0/phenocycler-v2.1.0.xlsx
@@ -891,7 +891,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2023-11-15T17:12:54-08:00</t>
+    <t>2023-11-24T09:43:30-08:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
